--- a/Monitor_Result.xlsx
+++ b/Monitor_Result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4005,6 +4005,102 @@
         <v>0</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>20230811 - 11:54:29</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2548</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>66.671875</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>20230811 - 11:54:35</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2548</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>69.4375</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>20230811 - 11:57:52</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2548</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>75.890625</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>20230811 - 12:03:39</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2548</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>91.53125</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Monitor_Result.xlsx
+++ b/Monitor_Result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H764"/>
+  <dimension ref="A1:H802"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24789,6 +24789,1222 @@
         <v>11.79</v>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:15</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D765" t="n">
+        <v>0</v>
+      </c>
+      <c r="E765" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G765" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H765" t="n">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:16</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D766" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E766" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G766" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H766" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:18</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D767" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E767" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G767" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H767" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:19</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D768" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E768" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G768" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H768" t="n">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:21</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D769" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E769" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G769" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H769" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:22</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D770" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E770" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G770" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H770" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:24</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D771" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E771" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G771" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H771" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:25</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D772" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E772" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G772" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H772" t="n">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:27</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D773" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E773" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G773" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H773" t="n">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:28</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D774" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E774" t="n">
+        <v>11.33213043212891</v>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G774" t="n">
+        <v>0.0002078083480528918</v>
+      </c>
+      <c r="H774" t="n">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:30</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D775" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E775" t="n">
+        <v>11.33518218994141</v>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G775" t="n">
+        <v>0.0002141216009575177</v>
+      </c>
+      <c r="H775" t="n">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:32</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D776" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="E776" t="n">
+        <v>11.73801422119141</v>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G776" t="n">
+        <v>0.0002141839162615308</v>
+      </c>
+      <c r="H776" t="n">
+        <v>11.47</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:33</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D777" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="E777" t="n">
+        <v>11.48414611816406</v>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G777" t="n">
+        <v>0.008177410523996462</v>
+      </c>
+      <c r="H777" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:35</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D778" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="E778" t="n">
+        <v>10.65292358398438</v>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G778" t="n">
+        <v>0.03107107436779232</v>
+      </c>
+      <c r="H778" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:37</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D779" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="E779" t="n">
+        <v>10.65292358398438</v>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G779" t="n">
+        <v>0.04951319246418343</v>
+      </c>
+      <c r="H779" t="n">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:38</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D780" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="E780" t="n">
+        <v>10.65292358398438</v>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G780" t="n">
+        <v>0.06191392704623951</v>
+      </c>
+      <c r="H780" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:41</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D781" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E781" t="n">
+        <v>11.28501892089844</v>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G781" t="n">
+        <v>0.0819458829095609</v>
+      </c>
+      <c r="H781" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:43</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D782" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E782" t="n">
+        <v>11.28501892089844</v>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>0.09275677972468671</v>
+      </c>
+      <c r="H782" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:44</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D783" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E783" t="n">
+        <v>11.18431091308594</v>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>0.1061114169669009</v>
+      </c>
+      <c r="H783" t="n">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:46</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D784" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E784" t="n">
+        <v>11.17477416992188</v>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>0.1215328433061246</v>
+      </c>
+      <c r="H784" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:47</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D785" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="E785" t="n">
+        <v>11.13243103027344</v>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>0.1382261398588924</v>
+      </c>
+      <c r="H785" t="n">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:49</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D786" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E786" t="n">
+        <v>11.13243103027344</v>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G786" t="n">
+        <v>0.1541245175281951</v>
+      </c>
+      <c r="H786" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:51</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D787" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E787" t="n">
+        <v>11.08932495117188</v>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G787" t="n">
+        <v>0.1757463111584467</v>
+      </c>
+      <c r="H787" t="n">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:52</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D788" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="E788" t="n">
+        <v>11.10191345214844</v>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G788" t="n">
+        <v>0.1922806239345215</v>
+      </c>
+      <c r="H788" t="n">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:54</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D789" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="E789" t="n">
+        <v>11.10496520996094</v>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G789" t="n">
+        <v>0.2088149367105963</v>
+      </c>
+      <c r="H789" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:56</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D790" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E790" t="n">
+        <v>11.05003356933594</v>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G790" t="n">
+        <v>0.2256672170400571</v>
+      </c>
+      <c r="H790" t="n">
+        <v>11.36</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>20230814 - 20:32:57</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D791" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E791" t="n">
+        <v>11.07177734375</v>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G791" t="n">
+        <v>0.2387038867288853</v>
+      </c>
+      <c r="H791" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:00</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D792" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="E792" t="n">
+        <v>11.07177734375</v>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G792" t="n">
+        <v>0.2705006420674906</v>
+      </c>
+      <c r="H792" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:02</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D793" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E793" t="n">
+        <v>11.0748291015625</v>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G793" t="n">
+        <v>0.290214630377426</v>
+      </c>
+      <c r="H793" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:03</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D794" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E794" t="n">
+        <v>11.083984375</v>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G794" t="n">
+        <v>0.3064309756001147</v>
+      </c>
+      <c r="H794" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:05</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D795" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="E795" t="n">
+        <v>11.090087890625</v>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G795" t="n">
+        <v>0.3240781748130407</v>
+      </c>
+      <c r="H795" t="n">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:07</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D796" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E796" t="n">
+        <v>11.126708984375</v>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G796" t="n">
+        <v>0.349992530414004</v>
+      </c>
+      <c r="H796" t="n">
+        <v>11.38</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:09</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D797" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E797" t="n">
+        <v>11.126708984375</v>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G797" t="n">
+        <v>0.367798713403623</v>
+      </c>
+      <c r="H797" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:11</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D798" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="E798" t="n">
+        <v>10.68038940429688</v>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G798" t="n">
+        <v>0.3833791235195397</v>
+      </c>
+      <c r="H798" t="n">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:13</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E799" t="n">
+        <v>10.99472045898438</v>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G799" t="n">
+        <v>0.4002314038490005</v>
+      </c>
+      <c r="H799" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:14</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E800" t="n">
+        <v>10.75668334960938</v>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G800" t="n">
+        <v>0.4119962033242845</v>
+      </c>
+      <c r="H800" t="n">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:16</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D801" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E801" t="n">
+        <v>10.71701049804688</v>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G801" t="n">
+        <v>0.415493889168017</v>
+      </c>
+      <c r="H801" t="n">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>20230814 - 20:33:17</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>explorer.exe</t>
+        </is>
+      </c>
+      <c r="D802" t="n">
+        <v>0</v>
+      </c>
+      <c r="E802" t="n">
+        <v>10.71701049804688</v>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G802" t="n">
+        <v>0.415493889168017</v>
+      </c>
+      <c r="H802" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
